--- a/biology/Botanique/Châtaignier_de_Celles-sur-Belle/Châtaignier_de_Celles-sur-Belle.xlsx
+++ b/biology/Botanique/Châtaignier_de_Celles-sur-Belle/Châtaignier_de_Celles-sur-Belle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_de_Celles-sur-Belle</t>
+          <t>Châtaignier_de_Celles-sur-Belle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Châtaignier de Celles-sur-Belle, connu localement sous le nom de « Talle à teurtous », c'est-à-dire « châtaignier à tout le monde » est un arbre remarquable, qui a reçu le prix du jury du concours de l'Arbre de l'année pour l'année 2021.
 Une « talle », dans le parler saintongeais, désigne un châtaignier (Castanea sativa) greffé pour la production de fruits. Celui-ci a donné son nom au lieu où il se trouve dans le hameau de la Revêtizon.
